--- a/Interview/Test Data.xlsx
+++ b/Interview/Test Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44A107E9-A6FA-4972-8217-639E6B9B5CAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C749ED5-CFA4-4AA8-B86D-AEE3BE32FC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,45 +353,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="L7:M10"/>
+  <dimension ref="N11:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:M10"/>
+      <selection activeCell="N15" sqref="N15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L7" t="s">
+    <row r="11" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L8" s="1">
+    <row r="12" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L9" s="1">
+    <row r="13" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N13" s="1">
         <v>2</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L10" s="1">
+    <row r="14" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N14" s="1">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O14" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="15" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
